--- a/excercises/excercises/20.IPR.xlsx
+++ b/excercises/excercises/20.IPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23444A6F-AC65-4BEC-BC51-2BCFE1C8BB2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C92992B-EA23-47FF-9A89-12068D8EE5EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36465" yWindow="510" windowWidth="30480" windowHeight="19095" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPR" sheetId="110" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="326">
   <si>
     <t>Конструкция</t>
   </si>
@@ -1387,6 +1387,9 @@
   <si>
     <t>Построение индикаторной кривой</t>
   </si>
+  <si>
+    <t>версия</t>
+  </si>
 </sst>
 </file>
 
@@ -2252,60 +2255,19 @@
     <xf numFmtId="2" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2314,16 +2276,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2364,8 +2321,54 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -5917,14 +5920,15 @@
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
+      <definedName name="getUFVersion"/>
       <definedName name="IPR_PI_sm3dayatm"/>
       <definedName name="IPR_Pwf_atma"/>
       <definedName name="IPR_Qliq_sm3Day"/>
       <definedName name="PVT_Pb_atma"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6230,10 +6234,10 @@
   <sheetPr codeName="Лист1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6250,22 +6254,29 @@
     <col min="22" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" t="str">
+        <f>[1]!getUFVersion()</f>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>294</v>
       </c>
@@ -6281,7 +6292,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="54" t="s">
         <v>295</v>
       </c>
@@ -6297,7 +6308,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="54" t="s">
         <v>296</v>
       </c>
@@ -6313,7 +6324,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="55" t="s">
         <v>297</v>
       </c>
@@ -6331,7 +6342,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="55" t="s">
         <v>299</v>
       </c>
@@ -6349,7 +6360,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="54" t="s">
         <v>300</v>
       </c>
@@ -6365,7 +6376,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="54" t="s">
         <v>303</v>
       </c>
@@ -6383,7 +6394,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="55" t="s">
         <v>305</v>
       </c>
@@ -6396,7 +6407,7 @@
       <c r="E14" s="54"/>
       <c r="F14" s="53"/>
     </row>
-    <row r="15" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="57" t="s">
         <v>306</v>
       </c>
@@ -6409,7 +6420,7 @@
       <c r="E15" s="54"/>
       <c r="F15" s="53"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B16" s="57" t="s">
         <v>309</v>
       </c>
@@ -6553,11 +6564,11 @@
       <c r="C40" s="60">
         <v>0</v>
       </c>
-      <c r="D40" s="100">
+      <c r="D40" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C40,fw_,Pb_)</f>
         <v>250</v>
       </c>
-      <c r="E40" s="100">
+      <c r="E40" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D40,fw_,Pb_)</f>
         <v>0</v>
       </c>
@@ -6567,11 +6578,11 @@
         <f t="shared" ref="C41:C60" si="0">C40+qmax_/N_</f>
         <v>8.8998339311037835</v>
       </c>
-      <c r="D41" s="100">
+      <c r="D41" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C41,fw_,Pb_)</f>
         <v>241.1822931124685</v>
       </c>
-      <c r="E41" s="100">
+      <c r="E41" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D41,fw_,Pb_)</f>
         <v>8.8998339311037835</v>
       </c>
@@ -6581,11 +6592,11 @@
         <f t="shared" si="0"/>
         <v>17.799667862207567</v>
       </c>
-      <c r="D42" s="100">
+      <c r="D42" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C42,fw_,Pb_)</f>
         <v>232.364586224937</v>
       </c>
-      <c r="E42" s="100">
+      <c r="E42" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D42,fw_,Pb_)</f>
         <v>17.799667862207567</v>
       </c>
@@ -6595,11 +6606,11 @@
         <f t="shared" si="0"/>
         <v>26.699501793311349</v>
       </c>
-      <c r="D43" s="100">
+      <c r="D43" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C43,fw_,Pb_)</f>
         <v>223.5468793374055</v>
       </c>
-      <c r="E43" s="100">
+      <c r="E43" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D43,fw_,Pb_)</f>
         <v>26.699501793311349</v>
       </c>
@@ -6609,11 +6620,11 @@
         <f t="shared" si="0"/>
         <v>35.599335724415134</v>
       </c>
-      <c r="D44" s="100">
+      <c r="D44" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C44,fw_,Pb_)</f>
         <v>214.729172449874</v>
       </c>
-      <c r="E44" s="100">
+      <c r="E44" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D44,fw_,Pb_)</f>
         <v>35.599335724415134</v>
       </c>
@@ -6623,11 +6634,11 @@
         <f t="shared" si="0"/>
         <v>44.499169655518919</v>
       </c>
-      <c r="D45" s="100">
+      <c r="D45" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C45,fw_,Pb_)</f>
         <v>205.9114655623425</v>
       </c>
-      <c r="E45" s="100">
+      <c r="E45" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D45,fw_,Pb_)</f>
         <v>44.499169655518919</v>
       </c>
@@ -6637,11 +6648,11 @@
         <f t="shared" si="0"/>
         <v>53.399003586622705</v>
       </c>
-      <c r="D46" s="100">
+      <c r="D46" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C46,fw_,Pb_)</f>
         <v>197.093758674811</v>
       </c>
-      <c r="E46" s="100">
+      <c r="E46" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D46,fw_,Pb_)</f>
         <v>53.399003586622698</v>
       </c>
@@ -6651,11 +6662,11 @@
         <f t="shared" si="0"/>
         <v>62.29883751772649</v>
       </c>
-      <c r="D47" s="100">
+      <c r="D47" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C47,fw_,Pb_)</f>
         <v>188.2760517872795</v>
       </c>
-      <c r="E47" s="100">
+      <c r="E47" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D47,fw_,Pb_)</f>
         <v>62.298837517726483</v>
       </c>
@@ -6665,11 +6676,11 @@
         <f t="shared" si="0"/>
         <v>71.198671448830268</v>
       </c>
-      <c r="D48" s="100">
+      <c r="D48" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C48,fw_,Pb_)</f>
         <v>179.458344899748</v>
       </c>
-      <c r="E48" s="100">
+      <c r="E48" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D48,fw_,Pb_)</f>
         <v>71.198671448830268</v>
       </c>
@@ -6679,11 +6690,11 @@
         <f t="shared" si="0"/>
         <v>80.098505379934053</v>
       </c>
-      <c r="D49" s="100">
+      <c r="D49" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C49,fw_,Pb_)</f>
         <v>170.6402463546396</v>
       </c>
-      <c r="E49" s="100">
+      <c r="E49" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D49,fw_,Pb_)</f>
         <v>80.098505379933883</v>
       </c>
@@ -6693,11 +6704,11 @@
         <f t="shared" si="0"/>
         <v>88.998339311037839</v>
       </c>
-      <c r="D50" s="100">
+      <c r="D50" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C50,fw_,Pb_)</f>
         <v>161.64040553953558</v>
       </c>
-      <c r="E50" s="100">
+      <c r="E50" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D50,fw_,Pb_)</f>
         <v>88.998339311038009</v>
       </c>
@@ -6707,11 +6718,11 @@
         <f t="shared" si="0"/>
         <v>97.898173242141624</v>
       </c>
-      <c r="D51" s="100">
+      <c r="D51" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C51,fw_,Pb_)</f>
         <v>152.27265510366118</v>
       </c>
-      <c r="E51" s="100">
+      <c r="E51" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D51,fw_,Pb_)</f>
         <v>97.898173242141482</v>
       </c>
@@ -6721,11 +6732,11 @@
         <f t="shared" si="0"/>
         <v>106.79800717324541</v>
       </c>
-      <c r="D52" s="100">
+      <c r="D52" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C52,fw_,Pb_)</f>
         <v>142.47267612657711</v>
       </c>
-      <c r="E52" s="100">
+      <c r="E52" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D52,fw_,Pb_)</f>
         <v>106.79800717324528</v>
       </c>
@@ -6735,11 +6746,11 @@
         <f t="shared" si="0"/>
         <v>115.69784110434919</v>
       </c>
-      <c r="D53" s="100">
+      <c r="D53" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C53,fw_,Pb_)</f>
         <v>132.15489053736869</v>
       </c>
-      <c r="E53" s="100">
+      <c r="E53" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D53,fw_,Pb_)</f>
         <v>115.69784110434908</v>
       </c>
@@ -6749,11 +6760,11 @@
         <f t="shared" si="0"/>
         <v>124.59767503545298</v>
       </c>
-      <c r="D54" s="100">
+      <c r="D54" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C54,fw_,Pb_)</f>
         <v>121.2010921817587</v>
       </c>
-      <c r="E54" s="100">
+      <c r="E54" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D54,fw_,Pb_)</f>
         <v>124.59767503545321</v>
       </c>
@@ -6763,11 +6774,11 @@
         <f t="shared" si="0"/>
         <v>133.49750896655675</v>
       </c>
-      <c r="D55" s="100">
+      <c r="D55" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C55,fw_,Pb_)</f>
         <v>109.43981404404138</v>
       </c>
-      <c r="E55" s="100">
+      <c r="E55" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D55,fw_,Pb_)</f>
         <v>133.49750896655669</v>
       </c>
@@ -6777,11 +6788,11 @@
         <f t="shared" si="0"/>
         <v>142.39734289766054</v>
       </c>
-      <c r="D56" s="100">
+      <c r="D56" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C56,fw_,Pb_)</f>
         <v>96.605098313619692</v>
       </c>
-      <c r="E56" s="100">
+      <c r="E56" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D56,fw_,Pb_)</f>
         <v>142.39734289766048</v>
       </c>
@@ -6791,11 +6802,11 @@
         <f t="shared" si="0"/>
         <v>151.29717682876432</v>
       </c>
-      <c r="D57" s="100">
+      <c r="D57" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C57,fw_,Pb_)</f>
         <v>82.242055354612134</v>
       </c>
-      <c r="E57" s="100">
+      <c r="E57" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D57,fw_,Pb_)</f>
         <v>151.29717682876429</v>
       </c>
@@ -6805,11 +6816,11 @@
         <f t="shared" si="0"/>
         <v>160.19701075986811</v>
       </c>
-      <c r="D58" s="100">
+      <c r="D58" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C58,fw_,Pb_)</f>
         <v>65.439229802683883</v>
       </c>
-      <c r="E58" s="100">
+      <c r="E58" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D58,fw_,Pb_)</f>
         <v>160.19701075986811</v>
       </c>
@@ -6819,11 +6830,11 @@
         <f t="shared" si="0"/>
         <v>169.09684469097189</v>
       </c>
-      <c r="D59" s="100">
+      <c r="D59" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C59,fw_,Pb_)</f>
         <v>43.694853708745732</v>
       </c>
-      <c r="E59" s="100">
+      <c r="E59" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D59,fw_,Pb_)</f>
         <v>169.09684469097189</v>
       </c>
@@ -6833,11 +6844,11 @@
         <f t="shared" si="0"/>
         <v>177.99667862207568</v>
       </c>
-      <c r="D60" s="100">
+      <c r="D60" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C60,fw_,Pb_)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="100">
+      <c r="E60" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D60,fw_,Pb_)</f>
         <v>177.99667862207568</v>
       </c>
@@ -6885,29 +6896,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="V2" s="64" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="V2" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
     </row>
     <row r="3" spans="2:25" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
@@ -62644,15 +62655,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="72">
+      <c r="K1" s="94"/>
+      <c r="L1" s="98">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="73"/>
+      <c r="M1" s="99"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -62664,15 +62675,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70">
+      <c r="K2" s="96"/>
+      <c r="L2" s="71">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="71"/>
+      <c r="M2" s="97"/>
       <c r="T2" s="19" t="s">
         <v>20</v>
       </c>
@@ -62686,31 +62697,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="89"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="73">
         <v>1</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -62719,14 +62730,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="D8" s="96" t="s">
+      <c r="B8" s="80"/>
+      <c r="D8" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="97"/>
+      <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -62837,10 +62848,10 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="82"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -62868,10 +62879,10 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="99"/>
+      <c r="B23" s="82"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -62993,99 +63004,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="76" t="s">
+      <c r="B42" s="67"/>
+      <c r="C42" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="79" t="s">
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="80"/>
-      <c r="L42" s="65" t="s">
+      <c r="J42" s="89"/>
+      <c r="L42" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65" t="s">
+      <c r="M42" s="100"/>
+      <c r="N42" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65" t="s">
+      <c r="O42" s="100"/>
+      <c r="P42" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65" t="s">
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65" t="s">
+      <c r="S42" s="100"/>
+      <c r="T42" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="65"/>
-      <c r="V42" s="65" t="s">
+      <c r="U42" s="100"/>
+      <c r="V42" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65" t="s">
+      <c r="W42" s="100"/>
+      <c r="X42" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="65" t="s">
+      <c r="Y42" s="100"/>
+      <c r="Z42" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65" t="s">
+      <c r="AA42" s="100"/>
+      <c r="AB42" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65" t="s">
+      <c r="AC42" s="100"/>
+      <c r="AD42" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="65" t="s">
+      <c r="AE42" s="100"/>
+      <c r="AF42" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="65"/>
-      <c r="AH42" s="65" t="s">
+      <c r="AG42" s="100"/>
+      <c r="AH42" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="65"/>
-      <c r="AJ42" s="65" t="s">
+      <c r="AI42" s="100"/>
+      <c r="AJ42" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="65"/>
-      <c r="AL42" s="65"/>
-      <c r="AM42" s="65"/>
-      <c r="AN42" s="65"/>
-      <c r="AO42" s="65"/>
-      <c r="AP42" s="65"/>
-      <c r="AQ42" s="65"/>
-      <c r="AR42" s="65"/>
-      <c r="AS42" s="65"/>
+      <c r="AK42" s="100"/>
+      <c r="AL42" s="100"/>
+      <c r="AM42" s="100"/>
+      <c r="AN42" s="100"/>
+      <c r="AO42" s="100"/>
+      <c r="AP42" s="100"/>
+      <c r="AQ42" s="100"/>
+      <c r="AR42" s="100"/>
+      <c r="AS42" s="100"/>
       <c r="AT42" s="21"/>
     </row>
     <row r="43" spans="1:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="83" t="s">
+      <c r="A43" s="68"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="84"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="83" t="s">
+      <c r="D43" s="69"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="84"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="82"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="91"/>
       <c r="L43" s="21" t="s">
         <v>15</v>
       </c>
@@ -63181,17 +63192,17 @@
       <c r="B44" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="74" t="s">
+      <c r="C44" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="75"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="74" t="s">
+      <c r="F44" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="75"/>
+      <c r="G44" s="84"/>
       <c r="H44" s="8" t="s">
         <v>65</v>
       </c>
@@ -65664,20 +65675,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -65692,13 +65696,20 @@
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThanOrEqual">

--- a/excercises/excercises/20.IPR.xlsx
+++ b/excercises/excercises/20.IPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C92992B-EA23-47FF-9A89-12068D8EE5EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F88982-DAFB-4953-9AEB-D76C79709E45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="210" windowWidth="26520" windowHeight="20790" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPR" sheetId="110" r:id="rId1"/>
@@ -23,7 +23,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'База насосов'!$A$3:$O$1267</definedName>
     <definedName name="Bob_" localSheetId="0">IPR!$C$14</definedName>
-    <definedName name="dTdh_">IPR!#REF!</definedName>
     <definedName name="fw_">IPR!$C$16</definedName>
     <definedName name="gamma_gas_" localSheetId="0">IPR!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="0">IPR!$C$7</definedName>
@@ -31,7 +30,6 @@
     <definedName name="muob_">IPR!$C$15</definedName>
     <definedName name="N_" localSheetId="0">IPR!$C$29</definedName>
     <definedName name="Pb_">IPR!$C$17</definedName>
-    <definedName name="Pb_cal_" localSheetId="0">IPR!$C$12</definedName>
     <definedName name="PI_" localSheetId="0">IPR!$C$25</definedName>
     <definedName name="Pres_" localSheetId="0">IPR!$C$24</definedName>
     <definedName name="Pwftest_">IPR!$C$21</definedName>
@@ -2264,10 +2262,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2276,11 +2318,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2320,55 +2367,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2580,64 +2578,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8998339311037835</c:v>
+                  <c:v>8.3792731441949542</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.799667862207567</c:v>
+                  <c:v>16.758546288389908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.699501793311349</c:v>
+                  <c:v>25.137819432584863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.599335724415134</c:v>
+                  <c:v>33.517092576779817</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.499169655518919</c:v>
+                  <c:v>41.896365720974771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.399003586622705</c:v>
+                  <c:v>50.275638865169725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.29883751772649</c:v>
+                  <c:v>58.654912009364679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.198671448830268</c:v>
+                  <c:v>67.034185153559633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.098505379934053</c:v>
+                  <c:v>75.413458297754588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88.998339311037839</c:v>
+                  <c:v>83.792731441949542</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.898173242141624</c:v>
+                  <c:v>92.172004586144496</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106.79800717324541</c:v>
+                  <c:v>100.55127773033945</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>115.69784110434919</c:v>
+                  <c:v>108.9305508745344</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>124.59767503545298</c:v>
+                  <c:v>117.30982401872936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>133.49750896655675</c:v>
+                  <c:v>125.68909716292431</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>142.39734289766054</c:v>
+                  <c:v>134.06837030711927</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>151.29717682876432</c:v>
+                  <c:v>142.44764345131421</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>160.19701075986811</c:v>
+                  <c:v>150.82691659550915</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>169.09684469097189</c:v>
+                  <c:v>159.20618973970409</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>177.99667862207568</c:v>
+                  <c:v>167.58546288389903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2652,64 +2650,64 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>241.1822931124685</c:v>
+                  <c:v>242.8114697819401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232.364586224937</c:v>
+                  <c:v>235.47097321851291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>223.5468793374055</c:v>
+                  <c:v>227.965479677627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>214.729172449874</c:v>
+                  <c:v>220.27998248656144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>205.9114655623425</c:v>
+                  <c:v>212.39705208714059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>197.093758674811</c:v>
+                  <c:v>204.29625021898838</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>188.2760517872795</c:v>
+                  <c:v>195.9533483439667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>179.458344899748</c:v>
+                  <c:v>187.33926387700305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170.6402463546396</c:v>
+                  <c:v>178.41857870219391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>161.64040553953558</c:v>
+                  <c:v>169.14742008291859</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>152.27265510366118</c:v>
+                  <c:v>159.47033258588769</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>142.47267612657711</c:v>
+                  <c:v>149.31548322079414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>132.15489053736869</c:v>
+                  <c:v>138.58696574824597</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>121.2010921817587</c:v>
+                  <c:v>127.15171866767156</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.43981404404138</c:v>
+                  <c:v>114.81557776767839</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96.605098313619692</c:v>
+                  <c:v>101.27485214904351</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82.242055354612134</c:v>
+                  <c:v>86.00344638835098</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.439229802683883</c:v>
+                  <c:v>67.923468103450958</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.694853708745732</c:v>
+                  <c:v>43.914837929748906</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3.8481023922898316E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,64 +2732,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8998339311037835</c:v>
+                  <c:v>8.3792731441955848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.799667862207567</c:v>
+                  <c:v>16.758546288390225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.699501793311349</c:v>
+                  <c:v>25.137819432584866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.599335724415134</c:v>
+                  <c:v>33.517092576779504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.499169655518919</c:v>
+                  <c:v>41.896365720975091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.399003586622698</c:v>
+                  <c:v>50.275638865169732</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.298837517726483</c:v>
+                  <c:v>58.654912009364374</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.198671448830268</c:v>
+                  <c:v>67.03418515355996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.098505379933883</c:v>
+                  <c:v>75.413458297754602</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88.998339311038009</c:v>
+                  <c:v>83.792731441949243</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.898173242141482</c:v>
+                  <c:v>92.172004586144823</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106.79800717324528</c:v>
+                  <c:v>100.55127773033946</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>115.69784110434908</c:v>
+                  <c:v>108.93055087453411</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>124.59767503545321</c:v>
+                  <c:v>117.3098240187297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>133.49750896655669</c:v>
+                  <c:v>125.68909716292433</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>142.39734289766048</c:v>
+                  <c:v>134.06837030711898</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>151.29717682876429</c:v>
+                  <c:v>142.44764345131455</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>160.19701075986811</c:v>
+                  <c:v>150.8269165955092</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>169.09684469097189</c:v>
+                  <c:v>159.20618973970431</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>177.99667862207568</c:v>
+                  <c:v>167.58546288389903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2806,64 +2804,64 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>241.1822931124685</c:v>
+                  <c:v>242.8114697819401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232.364586224937</c:v>
+                  <c:v>235.47097321851291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>223.5468793374055</c:v>
+                  <c:v>227.965479677627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>214.729172449874</c:v>
+                  <c:v>220.27998248656144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>205.9114655623425</c:v>
+                  <c:v>212.39705208714059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>197.093758674811</c:v>
+                  <c:v>204.29625021898838</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>188.2760517872795</c:v>
+                  <c:v>195.9533483439667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>179.458344899748</c:v>
+                  <c:v>187.33926387700305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170.6402463546396</c:v>
+                  <c:v>178.41857870219391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>161.64040553953558</c:v>
+                  <c:v>169.14742008291859</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>152.27265510366118</c:v>
+                  <c:v>159.47033258588769</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>142.47267612657711</c:v>
+                  <c:v>149.31548322079414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>132.15489053736869</c:v>
+                  <c:v>138.58696574824597</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>121.2010921817587</c:v>
+                  <c:v>127.15171866767156</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.43981404404138</c:v>
+                  <c:v>114.81557776767839</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96.605098313619692</c:v>
+                  <c:v>101.27485214904351</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82.242055354612134</c:v>
+                  <c:v>86.00344638835098</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.439229802683883</c:v>
+                  <c:v>67.923468103450958</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.694853708745732</c:v>
+                  <c:v>43.914837929748906</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3.8481023922898316E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5924,7 +5922,7 @@
       <definedName name="IPR_PI_sm3dayatm"/>
       <definedName name="IPR_Pwf_atma"/>
       <definedName name="IPR_Qliq_sm3Day"/>
-      <definedName name="PVT_Pb_atma"/>
+      <definedName name="PVT_pb_atma"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -6237,7 +6235,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6368,9 +6366,9 @@
       <c r="D12" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="61" t="e">
         <f>Pb_cal_*1.01325/10</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="F12" s="56" t="s">
         <v>302</v>
@@ -6441,15 +6439,15 @@
         <v>308</v>
       </c>
       <c r="C17" s="51">
-        <f>[1]!PVT_Pb_atma(Tres_,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_cal_,Tres_,Bob_,muob_)</f>
-        <v>171.07977523961091</v>
+        <f>[1]!PVT_pb_atma(Tres_,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_cal_,Tres_,Bob_,muob_)</f>
+        <v>2029</v>
       </c>
       <c r="D17" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="61" t="e">
         <f>Pb_cal_*1.01325/10</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>302</v>
@@ -6507,7 +6505,7 @@
       </c>
       <c r="C25" s="58">
         <f>[1]!IPR_PI_sm3dayatm(qltest_,Pwftest_,Pres_,fw_,Pb_)</f>
-        <v>1.0093138777031037</v>
+        <v>1.1774482189276632</v>
       </c>
       <c r="D25" s="54" t="s">
         <v>317</v>
@@ -6519,7 +6517,7 @@
       </c>
       <c r="C26" s="51">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,0,fw_,Pb_)</f>
-        <v>177.99667862207568</v>
+        <v>167.58546288389908</v>
       </c>
       <c r="D26" s="54" t="s">
         <v>316</v>
@@ -6576,281 +6574,281 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C41" s="60">
         <f t="shared" ref="C41:C60" si="0">C40+qmax_/N_</f>
-        <v>8.8998339311037835</v>
+        <v>8.3792731441949542</v>
       </c>
       <c r="D41" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C41,fw_,Pb_)</f>
-        <v>241.1822931124685</v>
+        <v>242.8114697819401</v>
       </c>
       <c r="E41" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D41,fw_,Pb_)</f>
-        <v>8.8998339311037835</v>
+        <v>8.3792731441955848</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C42" s="60">
         <f t="shared" si="0"/>
-        <v>17.799667862207567</v>
+        <v>16.758546288389908</v>
       </c>
       <c r="D42" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C42,fw_,Pb_)</f>
-        <v>232.364586224937</v>
+        <v>235.47097321851291</v>
       </c>
       <c r="E42" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D42,fw_,Pb_)</f>
-        <v>17.799667862207567</v>
+        <v>16.758546288390225</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="60">
         <f t="shared" si="0"/>
-        <v>26.699501793311349</v>
+        <v>25.137819432584863</v>
       </c>
       <c r="D43" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C43,fw_,Pb_)</f>
-        <v>223.5468793374055</v>
+        <v>227.965479677627</v>
       </c>
       <c r="E43" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D43,fw_,Pb_)</f>
-        <v>26.699501793311349</v>
+        <v>25.137819432584866</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C44" s="60">
         <f t="shared" si="0"/>
-        <v>35.599335724415134</v>
+        <v>33.517092576779817</v>
       </c>
       <c r="D44" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C44,fw_,Pb_)</f>
-        <v>214.729172449874</v>
+        <v>220.27998248656144</v>
       </c>
       <c r="E44" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D44,fw_,Pb_)</f>
-        <v>35.599335724415134</v>
+        <v>33.517092576779504</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45" s="60">
         <f t="shared" si="0"/>
-        <v>44.499169655518919</v>
+        <v>41.896365720974771</v>
       </c>
       <c r="D45" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C45,fw_,Pb_)</f>
-        <v>205.9114655623425</v>
+        <v>212.39705208714059</v>
       </c>
       <c r="E45" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D45,fw_,Pb_)</f>
-        <v>44.499169655518919</v>
+        <v>41.896365720975091</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C46" s="60">
         <f t="shared" si="0"/>
-        <v>53.399003586622705</v>
+        <v>50.275638865169725</v>
       </c>
       <c r="D46" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C46,fw_,Pb_)</f>
-        <v>197.093758674811</v>
+        <v>204.29625021898838</v>
       </c>
       <c r="E46" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D46,fw_,Pb_)</f>
-        <v>53.399003586622698</v>
+        <v>50.275638865169732</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C47" s="60">
         <f t="shared" si="0"/>
-        <v>62.29883751772649</v>
+        <v>58.654912009364679</v>
       </c>
       <c r="D47" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C47,fw_,Pb_)</f>
-        <v>188.2760517872795</v>
+        <v>195.9533483439667</v>
       </c>
       <c r="E47" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D47,fw_,Pb_)</f>
-        <v>62.298837517726483</v>
+        <v>58.654912009364374</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C48" s="60">
         <f t="shared" si="0"/>
-        <v>71.198671448830268</v>
+        <v>67.034185153559633</v>
       </c>
       <c r="D48" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C48,fw_,Pb_)</f>
-        <v>179.458344899748</v>
+        <v>187.33926387700305</v>
       </c>
       <c r="E48" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D48,fw_,Pb_)</f>
-        <v>71.198671448830268</v>
+        <v>67.03418515355996</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" s="60">
         <f t="shared" si="0"/>
-        <v>80.098505379934053</v>
+        <v>75.413458297754588</v>
       </c>
       <c r="D49" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C49,fw_,Pb_)</f>
-        <v>170.6402463546396</v>
+        <v>178.41857870219391</v>
       </c>
       <c r="E49" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D49,fw_,Pb_)</f>
-        <v>80.098505379933883</v>
+        <v>75.413458297754602</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" s="60">
         <f t="shared" si="0"/>
-        <v>88.998339311037839</v>
+        <v>83.792731441949542</v>
       </c>
       <c r="D50" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C50,fw_,Pb_)</f>
-        <v>161.64040553953558</v>
+        <v>169.14742008291859</v>
       </c>
       <c r="E50" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D50,fw_,Pb_)</f>
-        <v>88.998339311038009</v>
+        <v>83.792731441949243</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" s="60">
         <f t="shared" si="0"/>
-        <v>97.898173242141624</v>
+        <v>92.172004586144496</v>
       </c>
       <c r="D51" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C51,fw_,Pb_)</f>
-        <v>152.27265510366118</v>
+        <v>159.47033258588769</v>
       </c>
       <c r="E51" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D51,fw_,Pb_)</f>
-        <v>97.898173242141482</v>
+        <v>92.172004586144823</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" s="60">
         <f t="shared" si="0"/>
-        <v>106.79800717324541</v>
+        <v>100.55127773033945</v>
       </c>
       <c r="D52" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C52,fw_,Pb_)</f>
-        <v>142.47267612657711</v>
+        <v>149.31548322079414</v>
       </c>
       <c r="E52" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D52,fw_,Pb_)</f>
-        <v>106.79800717324528</v>
+        <v>100.55127773033946</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" s="60">
         <f t="shared" si="0"/>
-        <v>115.69784110434919</v>
+        <v>108.9305508745344</v>
       </c>
       <c r="D53" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C53,fw_,Pb_)</f>
-        <v>132.15489053736869</v>
+        <v>138.58696574824597</v>
       </c>
       <c r="E53" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D53,fw_,Pb_)</f>
-        <v>115.69784110434908</v>
+        <v>108.93055087453411</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" s="60">
         <f t="shared" si="0"/>
-        <v>124.59767503545298</v>
+        <v>117.30982401872936</v>
       </c>
       <c r="D54" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C54,fw_,Pb_)</f>
-        <v>121.2010921817587</v>
+        <v>127.15171866767156</v>
       </c>
       <c r="E54" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D54,fw_,Pb_)</f>
-        <v>124.59767503545321</v>
+        <v>117.3098240187297</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" s="60">
         <f t="shared" si="0"/>
-        <v>133.49750896655675</v>
+        <v>125.68909716292431</v>
       </c>
       <c r="D55" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C55,fw_,Pb_)</f>
-        <v>109.43981404404138</v>
+        <v>114.81557776767839</v>
       </c>
       <c r="E55" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D55,fw_,Pb_)</f>
-        <v>133.49750896655669</v>
+        <v>125.68909716292433</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" s="60">
         <f t="shared" si="0"/>
-        <v>142.39734289766054</v>
+        <v>134.06837030711927</v>
       </c>
       <c r="D56" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C56,fw_,Pb_)</f>
-        <v>96.605098313619692</v>
+        <v>101.27485214904351</v>
       </c>
       <c r="E56" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D56,fw_,Pb_)</f>
-        <v>142.39734289766048</v>
+        <v>134.06837030711898</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" s="60">
         <f t="shared" si="0"/>
-        <v>151.29717682876432</v>
+        <v>142.44764345131421</v>
       </c>
       <c r="D57" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C57,fw_,Pb_)</f>
-        <v>82.242055354612134</v>
+        <v>86.00344638835098</v>
       </c>
       <c r="E57" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D57,fw_,Pb_)</f>
-        <v>151.29717682876429</v>
+        <v>142.44764345131455</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" s="60">
         <f t="shared" si="0"/>
-        <v>160.19701075986811</v>
+        <v>150.82691659550915</v>
       </c>
       <c r="D58" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C58,fw_,Pb_)</f>
-        <v>65.439229802683883</v>
+        <v>67.923468103450958</v>
       </c>
       <c r="E58" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D58,fw_,Pb_)</f>
-        <v>160.19701075986811</v>
+        <v>150.8269165955092</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" s="60">
         <f t="shared" si="0"/>
-        <v>169.09684469097189</v>
+        <v>159.20618973970409</v>
       </c>
       <c r="D59" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C59,fw_,Pb_)</f>
-        <v>43.694853708745732</v>
+        <v>43.914837929748906</v>
       </c>
       <c r="E59" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D59,fw_,Pb_)</f>
-        <v>169.09684469097189</v>
+        <v>159.20618973970431</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" s="60">
         <f t="shared" si="0"/>
-        <v>177.99667862207568</v>
+        <v>167.58546288389903</v>
       </c>
       <c r="D60" s="63">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C60,fw_,Pb_)</f>
-        <v>0</v>
+        <v>3.8481023922898316E-13</v>
       </c>
       <c r="E60" s="63">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D60,fw_,Pb_)</f>
-        <v>177.99667862207568</v>
+        <v>167.58546288389903</v>
       </c>
     </row>
   </sheetData>
@@ -62655,15 +62653,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="98">
+      <c r="K1" s="68"/>
+      <c r="L1" s="73">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="99"/>
+      <c r="M1" s="74"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -62675,15 +62673,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="96"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="71">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="97"/>
+      <c r="M2" s="72"/>
       <c r="T2" s="19" t="s">
         <v>20</v>
       </c>
@@ -62697,31 +62695,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="89" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="91">
         <v>1</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -62730,14 +62728,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="D8" s="79" t="s">
+      <c r="B8" s="98"/>
+      <c r="D8" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="98"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -62848,10 +62846,10 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="82"/>
+      <c r="B18" s="100"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -62879,10 +62877,10 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="82"/>
+      <c r="B23" s="100"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -63004,99 +63002,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="85" t="s">
+      <c r="B42" s="88"/>
+      <c r="C42" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="88" t="s">
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="89"/>
-      <c r="L42" s="100" t="s">
+      <c r="J42" s="81"/>
+      <c r="L42" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100" t="s">
+      <c r="M42" s="66"/>
+      <c r="N42" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="100"/>
-      <c r="P42" s="100" t="s">
+      <c r="O42" s="66"/>
+      <c r="P42" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="100" t="s">
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="100"/>
-      <c r="T42" s="100" t="s">
+      <c r="S42" s="66"/>
+      <c r="T42" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="100"/>
-      <c r="V42" s="100" t="s">
+      <c r="U42" s="66"/>
+      <c r="V42" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="100"/>
-      <c r="X42" s="100" t="s">
+      <c r="W42" s="66"/>
+      <c r="X42" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="100"/>
-      <c r="Z42" s="100" t="s">
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="100"/>
-      <c r="AB42" s="100" t="s">
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="100"/>
-      <c r="AD42" s="100" t="s">
+      <c r="AC42" s="66"/>
+      <c r="AD42" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="100"/>
-      <c r="AF42" s="100" t="s">
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="100"/>
-      <c r="AH42" s="100" t="s">
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="100"/>
-      <c r="AJ42" s="100" t="s">
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="100"/>
-      <c r="AL42" s="100"/>
-      <c r="AM42" s="100"/>
-      <c r="AN42" s="100"/>
-      <c r="AO42" s="100"/>
-      <c r="AP42" s="100"/>
-      <c r="AQ42" s="100"/>
-      <c r="AR42" s="100"/>
-      <c r="AS42" s="100"/>
+      <c r="AK42" s="66"/>
+      <c r="AL42" s="66"/>
+      <c r="AM42" s="66"/>
+      <c r="AN42" s="66"/>
+      <c r="AO42" s="66"/>
+      <c r="AP42" s="66"/>
+      <c r="AQ42" s="66"/>
+      <c r="AR42" s="66"/>
+      <c r="AS42" s="66"/>
       <c r="AT42" s="21"/>
     </row>
     <row r="43" spans="1:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="68" t="s">
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="68" t="s">
+      <c r="D43" s="85"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="69"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="91"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="83"/>
       <c r="L43" s="21" t="s">
         <v>15</v>
       </c>
@@ -63192,17 +63190,17 @@
       <c r="B44" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="84"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="83" t="s">
+      <c r="F44" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="84"/>
+      <c r="G44" s="76"/>
       <c r="H44" s="8" t="s">
         <v>65</v>
       </c>
@@ -65675,13 +65673,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -65696,20 +65701,13 @@
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThanOrEqual">

--- a/excercises/excercises/20.IPR.xlsx
+++ b/excercises/excercises/20.IPR.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr updateLinks="always" codeName="Workbook_IPR" hidePivotFieldList="1"/>
+  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A677B-4B28-4DAE-85B1-CCD15F91E2F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881250D-842A-4ABB-BCEF-636B99AC992B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16155" yWindow="2475" windowWidth="21930" windowHeight="17160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPR" sheetId="110" r:id="rId1"/>
@@ -1296,7 +1296,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="228805440"/>
@@ -1394,7 +1394,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="228804864"/>
@@ -1457,7 +1457,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1952,24 +1952,24 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" customWidth="1"/>
-    <col min="11" max="11" width="10.1328125" customWidth="1"/>
-    <col min="22" max="32" width="9.1328125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="22" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1978,20 +1978,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
@@ -2204,12 +2204,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
@@ -2244,12 +2244,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
@@ -2258,17 +2258,17 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C40" s="14">
         <v>0</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C41" s="14">
         <f t="shared" ref="C41:C60" si="0">C40+qmax_/N_</f>
         <v>9.9187474546011547</v>
@@ -2306,7 +2306,7 @@
         <v>9.9187474546011458</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C42" s="14">
         <f t="shared" si="0"/>
         <v>19.837494909202309</v>
@@ -2320,7 +2320,7 @@
         <v>19.83749490920232</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="14">
         <f t="shared" si="0"/>
         <v>29.756242363803466</v>
@@ -2334,7 +2334,7 @@
         <v>29.756242363803466</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C44" s="14">
         <f t="shared" si="0"/>
         <v>39.674989818404619</v>
@@ -2348,7 +2348,7 @@
         <v>39.674989818404612</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45" s="14">
         <f t="shared" si="0"/>
         <v>49.593737273005772</v>
@@ -2362,7 +2362,7 @@
         <v>49.593737273005786</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C46" s="14">
         <f t="shared" si="0"/>
         <v>59.512484727606925</v>
@@ -2376,7 +2376,7 @@
         <v>59.512484727606932</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C47" s="14">
         <f t="shared" si="0"/>
         <v>69.431232182208078</v>
@@ -2390,7 +2390,7 @@
         <v>69.431232182208078</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C48" s="14">
         <f t="shared" si="0"/>
         <v>79.349979636809238</v>
@@ -2404,7 +2404,7 @@
         <v>79.349979636809223</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" s="14">
         <f t="shared" si="0"/>
         <v>89.268727091410398</v>
@@ -2418,7 +2418,7 @@
         <v>89.268727091410398</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" s="14">
         <f t="shared" si="0"/>
         <v>99.187474546011558</v>
@@ -2432,7 +2432,7 @@
         <v>99.187474546011572</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" s="14">
         <f t="shared" si="0"/>
         <v>109.10622200061272</v>
@@ -2446,7 +2446,7 @@
         <v>109.10622200061272</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" s="14">
         <f t="shared" si="0"/>
         <v>119.02496945521388</v>
@@ -2460,7 +2460,7 @@
         <v>119.02496945521386</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" s="14">
         <f t="shared" si="0"/>
         <v>128.94371690981504</v>
@@ -2474,7 +2474,7 @@
         <v>128.94371690981504</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" s="14">
         <f t="shared" si="0"/>
         <v>138.86246436441618</v>
@@ -2488,7 +2488,7 @@
         <v>138.86246436441624</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" s="14">
         <f t="shared" si="0"/>
         <v>148.78121181901733</v>
@@ -2502,7 +2502,7 @@
         <v>148.78121181901744</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" s="14">
         <f t="shared" si="0"/>
         <v>158.69995927361848</v>
@@ -2516,7 +2516,7 @@
         <v>158.69995927361836</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" s="14">
         <f t="shared" si="0"/>
         <v>168.61870672821962</v>
@@ -2530,7 +2530,7 @@
         <v>168.61870672821959</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" s="14">
         <f t="shared" si="0"/>
         <v>178.53745418282077</v>
@@ -2544,7 +2544,7 @@
         <v>178.53745418282082</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" s="14">
         <f t="shared" si="0"/>
         <v>188.45620163742191</v>
@@ -2558,7 +2558,7 @@
         <v>188.45620163742174</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" s="14">
         <f t="shared" si="0"/>
         <v>198.37494909202306</v>

--- a/excercises/excercises/20.IPR.xlsx
+++ b/excercises/excercises/20.IPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881250D-842A-4ABB-BCEF-636B99AC992B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EEA41F-7633-41F8-A6C2-AC0C8E1963D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16155" yWindow="2475" windowWidth="21930" windowHeight="17160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPR" sheetId="110" r:id="rId1"/>
@@ -1570,7 +1570,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>1. Как можно оценить продуктивность скважины?</a:t>
+            <a:t>1. Какие данные нужны для оценки продуктивность скважины?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1952,7 +1952,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">

--- a/excercises/excercises/20.IPR.xlsx
+++ b/excercises/excercises/20.IPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EEA41F-7633-41F8-A6C2-AC0C8E1963D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C33A54-3978-4CDC-A263-D402DE5D66DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1636,9 +1636,9 @@
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
-      <definedName name="IPR_PI_sm3dayatm"/>
-      <definedName name="IPR_Pwf_atma"/>
-      <definedName name="IPR_Qliq_sm3Day"/>
+      <definedName name="IPR_pi_sm3dayatm"/>
+      <definedName name="IPR_pwf_atma"/>
+      <definedName name="IPR_qliq_sm3day"/>
       <definedName name="PVT_pb_atma"/>
     </definedNames>
     <sheetDataSet>
@@ -1952,7 +1952,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2225,7 +2225,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="10">
-        <f>[1]!IPR_PI_sm3dayatm(qltest_,Pwftest_,Pres_,fw_,Pb_)</f>
+        <f>[1]!IPR_pi_sm3dayatm(qltest_,Pwftest_,Pres_,fw_,Pb_)</f>
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2237,7 +2237,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,0,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,0,fw_,Pb_)</f>
         <v>198.37494909202309</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2284,11 +2284,11 @@
         <v>0</v>
       </c>
       <c r="D40" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C40,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C40,fw_,Pb_)</f>
         <v>250</v>
       </c>
       <c r="E40" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D40,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D40,fw_,Pb_)</f>
         <v>0</v>
       </c>
     </row>
@@ -2298,11 +2298,11 @@
         <v>9.9187474546011547</v>
       </c>
       <c r="D41" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C41,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C41,fw_,Pb_)</f>
         <v>240.08125254539885</v>
       </c>
       <c r="E41" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D41,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D41,fw_,Pb_)</f>
         <v>9.9187474546011458</v>
       </c>
     </row>
@@ -2312,11 +2312,11 @@
         <v>19.837494909202309</v>
       </c>
       <c r="D42" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C42,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C42,fw_,Pb_)</f>
         <v>230.16250509079768</v>
       </c>
       <c r="E42" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D42,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D42,fw_,Pb_)</f>
         <v>19.83749490920232</v>
       </c>
     </row>
@@ -2326,11 +2326,11 @@
         <v>29.756242363803466</v>
       </c>
       <c r="D43" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C43,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C43,fw_,Pb_)</f>
         <v>220.24375763619653</v>
       </c>
       <c r="E43" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D43,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D43,fw_,Pb_)</f>
         <v>29.756242363803466</v>
       </c>
     </row>
@@ -2340,11 +2340,11 @@
         <v>39.674989818404619</v>
       </c>
       <c r="D44" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C44,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C44,fw_,Pb_)</f>
         <v>210.32501018159539</v>
       </c>
       <c r="E44" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D44,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D44,fw_,Pb_)</f>
         <v>39.674989818404612</v>
       </c>
     </row>
@@ -2354,11 +2354,11 @@
         <v>49.593737273005772</v>
       </c>
       <c r="D45" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C45,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C45,fw_,Pb_)</f>
         <v>200.40626272699421</v>
       </c>
       <c r="E45" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D45,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D45,fw_,Pb_)</f>
         <v>49.593737273005786</v>
       </c>
     </row>
@@ -2368,11 +2368,11 @@
         <v>59.512484727606925</v>
       </c>
       <c r="D46" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C46,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C46,fw_,Pb_)</f>
         <v>190.48751527239307</v>
       </c>
       <c r="E46" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D46,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D46,fw_,Pb_)</f>
         <v>59.512484727606932</v>
       </c>
     </row>
@@ -2382,11 +2382,11 @@
         <v>69.431232182208078</v>
       </c>
       <c r="D47" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C47,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C47,fw_,Pb_)</f>
         <v>180.56876781779192</v>
       </c>
       <c r="E47" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D47,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D47,fw_,Pb_)</f>
         <v>69.431232182208078</v>
       </c>
     </row>
@@ -2396,11 +2396,11 @@
         <v>79.349979636809238</v>
       </c>
       <c r="D48" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C48,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C48,fw_,Pb_)</f>
         <v>170.65002036319078</v>
       </c>
       <c r="E48" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D48,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D48,fw_,Pb_)</f>
         <v>79.349979636809223</v>
       </c>
     </row>
@@ -2410,11 +2410,11 @@
         <v>89.268727091410398</v>
       </c>
       <c r="D49" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C49,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C49,fw_,Pb_)</f>
         <v>160.7312729085896</v>
       </c>
       <c r="E49" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D49,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D49,fw_,Pb_)</f>
         <v>89.268727091410398</v>
       </c>
     </row>
@@ -2424,11 +2424,11 @@
         <v>99.187474546011558</v>
       </c>
       <c r="D50" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C50,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C50,fw_,Pb_)</f>
         <v>150.81252545398843</v>
       </c>
       <c r="E50" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D50,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D50,fw_,Pb_)</f>
         <v>99.187474546011572</v>
       </c>
     </row>
@@ -2438,11 +2438,11 @@
         <v>109.10622200061272</v>
       </c>
       <c r="D51" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C51,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C51,fw_,Pb_)</f>
         <v>140.89377799938728</v>
       </c>
       <c r="E51" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D51,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D51,fw_,Pb_)</f>
         <v>109.10622200061272</v>
       </c>
     </row>
@@ -2452,11 +2452,11 @@
         <v>119.02496945521388</v>
       </c>
       <c r="D52" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C52,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C52,fw_,Pb_)</f>
         <v>130.97503054478614</v>
       </c>
       <c r="E52" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D52,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D52,fw_,Pb_)</f>
         <v>119.02496945521386</v>
       </c>
     </row>
@@ -2466,11 +2466,11 @@
         <v>128.94371690981504</v>
       </c>
       <c r="D53" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C53,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C53,fw_,Pb_)</f>
         <v>121.05628309018496</v>
       </c>
       <c r="E53" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D53,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D53,fw_,Pb_)</f>
         <v>128.94371690981504</v>
       </c>
     </row>
@@ -2480,11 +2480,11 @@
         <v>138.86246436441618</v>
       </c>
       <c r="D54" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C54,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C54,fw_,Pb_)</f>
         <v>110.89439013405214</v>
       </c>
       <c r="E54" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D54,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D54,fw_,Pb_)</f>
         <v>138.86246436441624</v>
       </c>
     </row>
@@ -2494,11 +2494,11 @@
         <v>148.78121181901733</v>
       </c>
       <c r="D55" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C55,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C55,fw_,Pb_)</f>
         <v>100.02727433529388</v>
       </c>
       <c r="E55" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D55,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D55,fw_,Pb_)</f>
         <v>148.78121181901744</v>
       </c>
     </row>
@@ -2508,11 +2508,11 @@
         <v>158.69995927361848</v>
       </c>
       <c r="D56" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C56,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C56,fw_,Pb_)</f>
         <v>88.220870330268156</v>
       </c>
       <c r="E56" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D56,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D56,fw_,Pb_)</f>
         <v>158.69995927361836</v>
       </c>
     </row>
@@ -2522,11 +2522,11 @@
         <v>168.61870672821962</v>
       </c>
       <c r="D57" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C57,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C57,fw_,Pb_)</f>
         <v>75.082562520816197</v>
       </c>
       <c r="E57" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D57,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D57,fw_,Pb_)</f>
         <v>168.61870672821959</v>
       </c>
     </row>
@@ -2536,11 +2536,11 @@
         <v>178.53745418282077</v>
       </c>
       <c r="D58" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C58,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C58,fw_,Pb_)</f>
         <v>59.833402917957898</v>
       </c>
       <c r="E58" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D58,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D58,fw_,Pb_)</f>
         <v>178.53745418282082</v>
       </c>
     </row>
@@ -2550,11 +2550,11 @@
         <v>188.45620163742191</v>
       </c>
       <c r="D59" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C59,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C59,fw_,Pb_)</f>
         <v>40.383204097085397</v>
       </c>
       <c r="E59" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D59,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D59,fw_,Pb_)</f>
         <v>188.45620163742174</v>
       </c>
     </row>
@@ -2564,11 +2564,11 @@
         <v>198.37494909202306</v>
       </c>
       <c r="D60" s="9">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C60,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_,Pres_,C60,fw_,Pb_)</f>
         <v>2.8181536965155018E-13</v>
       </c>
       <c r="E60" s="9">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D60,fw_,Pb_)</f>
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D60,fw_,Pb_)</f>
         <v>198.37494909202306</v>
       </c>
     </row>

--- a/excercises/excercises/20.IPR.xlsx
+++ b/excercises/excercises/20.IPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C33A54-3978-4CDC-A263-D402DE5D66DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A53AE57-FA08-4AAD-8521-B80213B91D98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPR" sheetId="110" r:id="rId1"/>
@@ -1636,9 +1636,9 @@
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
+      <definedName name="IPR_p_wf_atma"/>
       <definedName name="IPR_pi_sm3dayatm"/>
-      <definedName name="IPR_pwf_atma"/>
-      <definedName name="IPR_qliq_sm3day"/>
+      <definedName name="IPR_q_liq_sm3day"/>
       <definedName name="PVT_pb_atma"/>
     </definedNames>
     <sheetDataSet>
@@ -1951,25 +1951,25 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="22" max="32" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+    <col min="22" max="32" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1978,20 +1978,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
@@ -2204,12 +2204,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
@@ -2232,24 +2232,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,0,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,0,fw_,Pb_)</f>
         <v>198.37494909202309</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
@@ -2258,17 +2258,17 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
@@ -2279,296 +2279,296 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" s="14">
         <v>0</v>
       </c>
       <c r="D40" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C40,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C40,fw_,Pb_)</f>
         <v>250</v>
       </c>
       <c r="E40" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D40,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D40,fw_,Pb_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" s="14">
         <f t="shared" ref="C41:C60" si="0">C40+qmax_/N_</f>
         <v>9.9187474546011547</v>
       </c>
       <c r="D41" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C41,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C41,fw_,Pb_)</f>
         <v>240.08125254539885</v>
       </c>
       <c r="E41" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D41,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D41,fw_,Pb_)</f>
         <v>9.9187474546011458</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" s="14">
         <f t="shared" si="0"/>
         <v>19.837494909202309</v>
       </c>
       <c r="D42" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C42,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C42,fw_,Pb_)</f>
         <v>230.16250509079768</v>
       </c>
       <c r="E42" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D42,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D42,fw_,Pb_)</f>
         <v>19.83749490920232</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C43" s="14">
         <f t="shared" si="0"/>
         <v>29.756242363803466</v>
       </c>
       <c r="D43" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C43,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C43,fw_,Pb_)</f>
         <v>220.24375763619653</v>
       </c>
       <c r="E43" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D43,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D43,fw_,Pb_)</f>
         <v>29.756242363803466</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C44" s="14">
         <f t="shared" si="0"/>
         <v>39.674989818404619</v>
       </c>
       <c r="D44" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C44,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C44,fw_,Pb_)</f>
         <v>210.32501018159539</v>
       </c>
       <c r="E44" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D44,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D44,fw_,Pb_)</f>
         <v>39.674989818404612</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C45" s="14">
         <f t="shared" si="0"/>
         <v>49.593737273005772</v>
       </c>
       <c r="D45" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C45,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C45,fw_,Pb_)</f>
         <v>200.40626272699421</v>
       </c>
       <c r="E45" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D45,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D45,fw_,Pb_)</f>
         <v>49.593737273005786</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C46" s="14">
         <f t="shared" si="0"/>
         <v>59.512484727606925</v>
       </c>
       <c r="D46" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C46,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C46,fw_,Pb_)</f>
         <v>190.48751527239307</v>
       </c>
       <c r="E46" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D46,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D46,fw_,Pb_)</f>
         <v>59.512484727606932</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" s="14">
         <f t="shared" si="0"/>
         <v>69.431232182208078</v>
       </c>
       <c r="D47" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C47,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C47,fw_,Pb_)</f>
         <v>180.56876781779192</v>
       </c>
       <c r="E47" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D47,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D47,fw_,Pb_)</f>
         <v>69.431232182208078</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48" s="14">
         <f t="shared" si="0"/>
         <v>79.349979636809238</v>
       </c>
       <c r="D48" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C48,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C48,fw_,Pb_)</f>
         <v>170.65002036319078</v>
       </c>
       <c r="E48" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D48,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D48,fw_,Pb_)</f>
         <v>79.349979636809223</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="14">
         <f t="shared" si="0"/>
         <v>89.268727091410398</v>
       </c>
       <c r="D49" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C49,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C49,fw_,Pb_)</f>
         <v>160.7312729085896</v>
       </c>
       <c r="E49" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D49,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D49,fw_,Pb_)</f>
         <v>89.268727091410398</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="14">
         <f t="shared" si="0"/>
         <v>99.187474546011558</v>
       </c>
       <c r="D50" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C50,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C50,fw_,Pb_)</f>
         <v>150.81252545398843</v>
       </c>
       <c r="E50" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D50,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D50,fw_,Pb_)</f>
         <v>99.187474546011572</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="14">
         <f t="shared" si="0"/>
         <v>109.10622200061272</v>
       </c>
       <c r="D51" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C51,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C51,fw_,Pb_)</f>
         <v>140.89377799938728</v>
       </c>
       <c r="E51" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D51,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D51,fw_,Pb_)</f>
         <v>109.10622200061272</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" s="14">
         <f t="shared" si="0"/>
         <v>119.02496945521388</v>
       </c>
       <c r="D52" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C52,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C52,fw_,Pb_)</f>
         <v>130.97503054478614</v>
       </c>
       <c r="E52" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D52,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D52,fw_,Pb_)</f>
         <v>119.02496945521386</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="14">
         <f t="shared" si="0"/>
         <v>128.94371690981504</v>
       </c>
       <c r="D53" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C53,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C53,fw_,Pb_)</f>
         <v>121.05628309018496</v>
       </c>
       <c r="E53" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D53,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D53,fw_,Pb_)</f>
         <v>128.94371690981504</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" s="14">
         <f t="shared" si="0"/>
         <v>138.86246436441618</v>
       </c>
       <c r="D54" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C54,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C54,fw_,Pb_)</f>
         <v>110.89439013405214</v>
       </c>
       <c r="E54" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D54,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D54,fw_,Pb_)</f>
         <v>138.86246436441624</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="14">
         <f t="shared" si="0"/>
         <v>148.78121181901733</v>
       </c>
       <c r="D55" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C55,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C55,fw_,Pb_)</f>
         <v>100.02727433529388</v>
       </c>
       <c r="E55" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D55,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D55,fw_,Pb_)</f>
         <v>148.78121181901744</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" s="14">
         <f t="shared" si="0"/>
         <v>158.69995927361848</v>
       </c>
       <c r="D56" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C56,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C56,fw_,Pb_)</f>
         <v>88.220870330268156</v>
       </c>
       <c r="E56" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D56,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D56,fw_,Pb_)</f>
         <v>158.69995927361836</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="14">
         <f t="shared" si="0"/>
         <v>168.61870672821962</v>
       </c>
       <c r="D57" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C57,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C57,fw_,Pb_)</f>
         <v>75.082562520816197</v>
       </c>
       <c r="E57" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D57,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D57,fw_,Pb_)</f>
         <v>168.61870672821959</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" s="14">
         <f t="shared" si="0"/>
         <v>178.53745418282077</v>
       </c>
       <c r="D58" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C58,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C58,fw_,Pb_)</f>
         <v>59.833402917957898</v>
       </c>
       <c r="E58" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D58,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D58,fw_,Pb_)</f>
         <v>178.53745418282082</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" s="14">
         <f t="shared" si="0"/>
         <v>188.45620163742191</v>
       </c>
       <c r="D59" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C59,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C59,fw_,Pb_)</f>
         <v>40.383204097085397</v>
       </c>
       <c r="E59" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D59,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D59,fw_,Pb_)</f>
         <v>188.45620163742174</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" s="14">
         <f t="shared" si="0"/>
         <v>198.37494909202306</v>
       </c>
       <c r="D60" s="9">
-        <f>[1]!IPR_pwf_atma(PI_,Pres_,C60,fw_,Pb_)</f>
+        <f>[1]!IPR_p_wf_atma(PI_,Pres_,C60,fw_,Pb_)</f>
         <v>2.8181536965155018E-13</v>
       </c>
       <c r="E60" s="9">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,D60,fw_,Pb_)</f>
+        <f>[1]!IPR_q_liq_sm3day(PI_,Pres_,D60,fw_,Pb_)</f>
         <v>198.37494909202306</v>
       </c>
     </row>
